--- a/P0003/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0003/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0003\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52981447-A7CB-4A04-B476-D86D33A7FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{52981447-A7CB-4A04-B476-D86D33A7FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357CF1AA-55D0-4315-8991-170846E43388}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{1FA04D11-F40D-4B74-ACE8-46652CE9ECB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{1FA04D11-F40D-4B74-ACE8-46652CE9ECB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,26 +36,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
   <si>
     <t>P0003</t>
   </si>
   <si>
+    <t>PR1001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modelo hidráulico 2D para La Mojana             </t>
   </si>
   <si>
-    <t>Integral</t>
-  </si>
-  <si>
-    <t>Fondo de Adaptación</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/05_MODELO/Anexo_C_ModeloHEC-N1</t>
+  </si>
+  <si>
+    <t>Integral S.A.</t>
+  </si>
+  <si>
+    <t>Fondo Adaptación</t>
   </si>
   <si>
     <t>Minhacienda</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este modelo tiene como objetivo estudiar la hidráulica de los cuerpos hídricos de La Mojana para definir zonas inundables en los periodos en los cuales se presentan fuertes crecientes debido al fenómeno de la niña, para plantear y evaluar posibles alternativas de solución a esta problemática. El modelo se construyó en HEC-RAS 5.0.3, con una geometría que cubre toda La Mojana y una malla de cálculo de 400 m x 400 m que se refina 25 m x 25 m en zonas de mayor detalle y las obras como diques se refinan hasta 15 m. Como condición inicial se estableció una elevación de 14.5 msnm para los cauces y ciénagas, correspondiente al nivel medio de la estación Magangué, ya que la zona inferior de La Mojana se encuentra parcialmente inundada cuando inició el periodo de La Niña en el 2010. Como condición de frontera aguas abajo del dominio fue utilizada la curva de caudal versus nivel localizada a unos 25 km aguas abajo de Magangué y en los cauces principales se estableció el caudal medio multianual de cada uno. El n de Manning se definió dependiendo del tipo de cobertura obtenido del CORINE LAND COVER. Se utilizó un DTM de 5 m de resolución y se calibró y validó el modelo con información de campo y manchas de inundación obtenidas con la herramienta SOBEK.      </t>
   </si>
   <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidrodinámico e hidráulico </t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
@@ -68,10 +224,10 @@
     <t xml:space="preserve">12 horas con un equipo con 24 núcleos reales y 36 GB de RAM    </t>
   </si>
   <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>PR0006</t>
+    <t>PR0023</t>
+  </si>
+  <si>
+    <t>PR0021</t>
   </si>
   <si>
     <t>Alternativa 1. No realizar intervención</t>
@@ -110,7 +266,13 @@
     <t xml:space="preserve">Modelación, HEC-RAS, condiciones de frontera, condiciones iniciales, topografía, La Mojana, malla, geometría, rugosidad del suelo, n de Manning, calibración, validación, análisis de sensibilidad, niveles, manchas de inundación, alternativas, Nechí, Colorado, Santa Anita, San Jacinto, Puerto López, Cauca, San Jorge, usos del suelo, MDT. </t>
   </si>
   <si>
+    <t>PR1002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modelo hidráulico para La Mojana             </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/05_MODELO/Anexo_B_ModeloSOBEK_N1</t>
   </si>
   <si>
     <t xml:space="preserve">Como información base, el Fondo Adaptación suministró modelos hidrodinámicos realizados con la herramienta SOBEK, los cuales fueron calibrados en un enfoque de acople 1D-2D y con un componente de lluvia escorrentía. El esquema típico del modelo está compuesto por canales principales que se conectan mediante trazos entre nodos bien definidos tanto para calculo hidráulico como hidrológico sobre las corrientes principales y utiliza una malla computacional para el cálculo hidráulico sobre las planicies de inundación. Se identificaron los sitios de conexión considerados a lo largo del río y se localizaron los nodos de conexión en el modelo, para los cuales se identificó visualmente el lugar específico de interacción con el río Cauca e igualmente se estableció en dónde, teóricamente, se empezaría a inundar la zona. El acople matemático realizado por Sobek 2.13, entre los algoritmos computacionales unidimensional (1D) sobre los cauces principales y bidimensional (2D) en la zona de planicie de inundación para los lugares de rompimiento, fue concebido en los estudios anteriores utilizando “nodos de conectividad” los cuales pudieron representar apropiadamente a escala regional un flujo de caudal entre ambos dominios; sin embargo, esta metodología ,en la escala espacial utilizada, no garantiza una conexión explicita entre afluentes en la zona bidimensional puesto las celdas de la malla computacional no permiten describir la morfología de caños quienes funcionan como canales naturales de intercambio entre afluentes principales._x000D_
@@ -124,22 +286,43 @@
     <t>Licenciado</t>
   </si>
   <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>PR0019</t>
+  </si>
+  <si>
+    <t>PR0020</t>
+  </si>
+  <si>
+    <t>PR0026</t>
+  </si>
+  <si>
     <t>La información del modelo se entrega como anexo, sin embargo, no existe un documento o informe en detalle que permita identificar las características y resultados de la construcción del modelo. Por otro lado, al ser un software licenciado, ni el equipo de trabajo, ni el Fondo Adaptación cuentan con una licencia vigente, por lo cual, revisar la información y ejecutar el modelo se hizo imposible.</t>
   </si>
   <si>
     <t xml:space="preserve">Modelación, Sobek, La Mojana, malla, geometría, rugosidad del suelo, n de Manning,  niveles, manchas de inundación, Nechí, Colorado, Santa Anita, San Jacinto, Puerto López, Cauca, San Jorge, usos del suelo, MDT. </t>
   </si>
   <si>
+    <t>PR1003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modelo hidráulico 2D para los municipios              </t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/05_MODELO/Anexo_A-ModelosHecMunicipios</t>
+  </si>
+  <si>
+    <t>Fondo de Adaptación</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este modelo corresponde a las simulaciones realizadas para evaluar las inundaciones en los municipios de Nechí, San Jacinto del Cauca, Guaranda, Achí, Majagual, Sucre, Caimito, San Benito Abad y Ayapel. Se crearon geometrías independientes para cada municipio y poseen mallas que varían entre 400 m y 15 m en las zonas de refinamientos y/o interés. Se utiliza el MDT de La Mojana con resolución de 5 metros. Para el n de Manning se emplea la capa de coberturas construida para el modelo general de La Mojana. Se utilizarón los caudales medios multianules de los ríos principales asociados a cada municipio como condiciones de contorno.      </t>
   </si>
   <si>
     <t xml:space="preserve">10 minutos en promedio con un equipo con 48 núcleos reales y 168 GB de RAM    </t>
   </si>
   <si>
-    <t>PR0007</t>
+    <t>PR0024</t>
   </si>
   <si>
     <t>Alternativa 1. Protección perimetral del casco urbano en su totalidad</t>
@@ -179,178 +362,13 @@
   </si>
   <si>
     <t>Nechí, San Jacinto del Cauca, Guaranda, Achí, Majagual, Sucre, Caimito, San Benito Abad, Ayapel, modelación, HEC-RAS, inundaciones, alternativas, medidas de protección, casco urbano, río Cauca, diques, socavación, diseño.</t>
-  </si>
-  <si>
-    <t>CODIGO DE PROYECTO</t>
-  </si>
-  <si>
-    <t>CODIGO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>DIRECTORIO</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>AUTOR 1</t>
-  </si>
-  <si>
-    <t>AUTOR 2</t>
-  </si>
-  <si>
-    <t>AUTOR 3</t>
-  </si>
-  <si>
-    <t>AUTOR 4</t>
-  </si>
-  <si>
-    <t>AUTOR 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>TIPO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>TIPO DE MODELO</t>
-  </si>
-  <si>
-    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
-  </si>
-  <si>
-    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
-  </si>
-  <si>
-    <t>SOFTWARE</t>
-  </si>
-  <si>
-    <t>TIPO DE LICENCIA</t>
-  </si>
-  <si>
-    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
-  </si>
-  <si>
-    <t>CODIGO PRODUCTO ASOCIADO 1</t>
-  </si>
-  <si>
-    <t>CODIGO PRODUCTO ASOCIADO 2</t>
-  </si>
-  <si>
-    <t>CODIGO PRODUCTO ASOCIADO 3</t>
-  </si>
-  <si>
-    <t>CODIGO PRODUCTO ASOCIADO 4</t>
-  </si>
-  <si>
-    <t>CODIGO PRODUCTO ASOCIADO 5</t>
-  </si>
-  <si>
-    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 1</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 1</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 2</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 2</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 3</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 3</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 4</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 4</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 5</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 6</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 6</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 7</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 7</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 8</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 8</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 9</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 9</t>
-  </si>
-  <si>
-    <t>NOMBRE ESCENARIO 10</t>
-  </si>
-  <si>
-    <t>DESCRIPCION ESCENARIO 10</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Numérico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidrodinámico e hidráulico </t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
-    <t>PR1001</t>
-  </si>
-  <si>
-    <t>PR1002</t>
-  </si>
-  <si>
-    <t>PR1003</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,574 +761,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3186E-1239-48D4-9AB3-A9D5F596857F}">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E2" s="1">
         <v>2018</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="X2" s="1">
         <v>5</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>2018</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="X3" s="1">
         <v>1</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1">
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="X4" s="3">
         <v>6</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
+    <row r="7" spans="1:46" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
